--- a/data/Annelinn/archetypes/pop_archetypes_citizen.xlsx
+++ b/data/Annelinn/archetypes/pop_archetypes_citizen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Annelinn\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA61E72-2B5B-4F23-9EDC-6BEF417B29B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7537419F-FD24-4121-8A0B-59C2A5663AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="1908" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -205,12 +205,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -225,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -233,6 +245,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2:AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -662,6 +676,9 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
+      <c r="C2" s="7">
+        <v>8362.8970330909506</v>
+      </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
@@ -743,16 +760,16 @@
       <c r="AD2">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="8">
         <v>12.763999999999999</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="8">
         <v>0.58699999999999997</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="8">
         <v>14.597</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="8">
         <v>1.4590000000000001</v>
       </c>
     </row>
@@ -763,6 +780,9 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
+      <c r="C3" s="7">
+        <v>6746.6029669090485</v>
+      </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
@@ -844,16 +864,16 @@
       <c r="AD3">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="8">
         <v>10.414999999999999</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="8">
         <v>0.63600000000000001</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="8">
         <v>10.736000000000001</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="8">
         <v>1.3029999999999999</v>
       </c>
     </row>
@@ -864,6 +884,9 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
+      <c r="C4" s="7">
+        <v>35598</v>
+      </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
@@ -945,16 +968,16 @@
       <c r="AD4">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" s="8">
         <v>3.8220000000000001</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="8">
         <v>0.40200000000000002</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" s="8">
         <v>6.86</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" s="8">
         <v>1.2789999999999999</v>
       </c>
     </row>
@@ -965,9 +988,8 @@
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5">
-        <f>5526+2002</f>
-        <v>7528</v>
+      <c r="C5" s="7">
+        <v>2002</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -1050,16 +1072,16 @@
       <c r="AD5">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="8">
         <v>5.9</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="8">
         <v>1.2589999999999999</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="8">
         <v>10.734999999999999</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" s="8">
         <v>1.698</v>
       </c>
     </row>
@@ -1070,6 +1092,9 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
+      <c r="C6" s="7">
+        <v>3194.5</v>
+      </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
@@ -1151,16 +1176,16 @@
       <c r="AD6">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="8">
         <v>12.301</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="8">
         <v>1.298</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="8">
         <v>13.621</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" s="8">
         <v>1.9330000000000001</v>
       </c>
     </row>

--- a/data/Annelinn/archetypes/pop_archetypes_citizen.xlsx
+++ b/data/Annelinn/archetypes/pop_archetypes_citizen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Annelinn\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\s0\Annelinn\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7537419F-FD24-4121-8A0B-59C2A5663AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651E7908-2C1C-4723-B059-F29D62DF809C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1908" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3228" yWindow="1992" windowWidth="14028" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -205,7 +205,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,12 +215,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -246,7 +240,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,7 +523,7 @@
   <dimension ref="A1:AI16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2:AH6"/>
+      <selection activeCell="AH6" sqref="AE1:AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,17 +753,17 @@
       <c r="AD2">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AE2" s="8">
-        <v>12.763999999999999</v>
-      </c>
-      <c r="AF2" s="8">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="AG2" s="8">
-        <v>14.597</v>
-      </c>
-      <c r="AH2" s="8">
-        <v>1.4590000000000001</v>
+      <c r="AE2">
+        <v>12764</v>
+      </c>
+      <c r="AF2">
+        <v>587</v>
+      </c>
+      <c r="AG2">
+        <v>14597</v>
+      </c>
+      <c r="AH2">
+        <v>1459</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
@@ -864,17 +857,17 @@
       <c r="AD3">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AE3" s="8">
-        <v>10.414999999999999</v>
-      </c>
-      <c r="AF3" s="8">
-        <v>0.63600000000000001</v>
-      </c>
-      <c r="AG3" s="8">
-        <v>10.736000000000001</v>
-      </c>
-      <c r="AH3" s="8">
-        <v>1.3029999999999999</v>
+      <c r="AE3">
+        <v>10415</v>
+      </c>
+      <c r="AF3">
+        <v>636</v>
+      </c>
+      <c r="AG3">
+        <v>10736</v>
+      </c>
+      <c r="AH3">
+        <v>1303</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
@@ -968,17 +961,17 @@
       <c r="AD4">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AE4" s="8">
-        <v>3.8220000000000001</v>
-      </c>
-      <c r="AF4" s="8">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="AG4" s="8">
-        <v>6.86</v>
-      </c>
-      <c r="AH4" s="8">
-        <v>1.2789999999999999</v>
+      <c r="AE4">
+        <v>3822</v>
+      </c>
+      <c r="AF4">
+        <v>402</v>
+      </c>
+      <c r="AG4">
+        <v>6860</v>
+      </c>
+      <c r="AH4">
+        <v>1279</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
@@ -1072,17 +1065,17 @@
       <c r="AD5">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="AE5" s="8">
-        <v>5.9</v>
-      </c>
-      <c r="AF5" s="8">
-        <v>1.2589999999999999</v>
-      </c>
-      <c r="AG5" s="8">
-        <v>10.734999999999999</v>
-      </c>
-      <c r="AH5" s="8">
-        <v>1.698</v>
+      <c r="AE5">
+        <v>5900</v>
+      </c>
+      <c r="AF5">
+        <v>1259</v>
+      </c>
+      <c r="AG5">
+        <v>10735</v>
+      </c>
+      <c r="AH5">
+        <v>1698</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
@@ -1176,17 +1169,17 @@
       <c r="AD6">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AE6" s="8">
-        <v>12.301</v>
-      </c>
-      <c r="AF6" s="8">
-        <v>1.298</v>
-      </c>
-      <c r="AG6" s="8">
-        <v>13.621</v>
-      </c>
-      <c r="AH6" s="8">
-        <v>1.9330000000000001</v>
+      <c r="AE6">
+        <v>12301</v>
+      </c>
+      <c r="AF6">
+        <v>1298</v>
+      </c>
+      <c r="AG6">
+        <v>13621</v>
+      </c>
+      <c r="AH6">
+        <v>1933</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">

--- a/data/Annelinn/archetypes/pop_archetypes_citizen.xlsx
+++ b/data/Annelinn/archetypes/pop_archetypes_citizen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\s0\Annelinn\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651E7908-2C1C-4723-B059-F29D62DF809C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30609ED3-97E8-4E31-A04C-B8D51A6A5987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3228" yWindow="1992" windowWidth="14028" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>name</t>
   </si>
@@ -156,15 +156,6 @@
   </si>
   <si>
     <t>independent_type_mu</t>
-  </si>
-  <si>
-    <t>independent_type_sigma</t>
-  </si>
-  <si>
-    <t>independent_type_max</t>
-  </si>
-  <si>
-    <t>independent_type_min</t>
   </si>
   <si>
     <t>homestay_mu</t>
@@ -231,13 +222,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -520,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI16"/>
+  <dimension ref="A1:AF16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AH6" sqref="AE1:AH6"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,38 +523,35 @@
     <col min="3" max="3" width="8.33203125" customWidth="1"/>
     <col min="4" max="4" width="5.88671875" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="14.44140625" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" customWidth="1"/>
-    <col min="21" max="21" width="18.33203125" customWidth="1"/>
-    <col min="22" max="26" width="18.6640625" customWidth="1"/>
-    <col min="27" max="27" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="14.44140625" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" customWidth="1"/>
+    <col min="18" max="18" width="18.33203125" customWidth="1"/>
+    <col min="19" max="23" width="18.6640625" customWidth="1"/>
+    <col min="24" max="24" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -574,662 +561,608 @@
         <v>39</v>
       </c>
       <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" t="s">
+      <c r="O1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" t="s">
-        <v>25</v>
-      </c>
       <c r="P1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="Y1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="Z1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="AA1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AB1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AD1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AE1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH1" t="s">
         <v>38</v>
       </c>
-      <c r="AI1" s="2"/>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AF1" s="2"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7">
-        <v>8362.8970330909506</v>
+      <c r="C2" s="6">
+        <v>21120.525000000001</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="3">
-        <v>0.90925</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.30649999999999999</v>
+        <v>0.61423662499999998</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="M2">
-        <v>480</v>
-      </c>
-      <c r="N2">
-        <v>180</v>
+        <v>240</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.30000000000000004</v>
       </c>
       <c r="O2">
-        <v>480</v>
-      </c>
-      <c r="P2">
-        <v>240</v>
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <v>2.06</v>
       </c>
       <c r="Q2" s="3">
-        <v>0.30000000000000004</v>
+        <v>0.02</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
-      <c r="S2" s="4">
-        <v>2.06</v>
-      </c>
-      <c r="T2" s="3">
-        <v>0.02</v>
+      <c r="S2">
+        <v>99</v>
+      </c>
+      <c r="T2">
+        <v>30</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V2">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="W2">
-        <v>30</v>
-      </c>
-      <c r="X2">
-        <v>15</v>
-      </c>
-      <c r="Y2">
-        <v>15</v>
+        <v>120</v>
+      </c>
+      <c r="X2" s="3">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="Z2">
-        <v>120</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>7.4399999999999994E-2</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>4.4999999999999999E-4</v>
+        <v>0.1</v>
+      </c>
+      <c r="AA2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AB2">
+        <v>12764</v>
       </c>
       <c r="AC2">
-        <v>0.1</v>
+        <v>587</v>
       </c>
       <c r="AD2">
-        <v>7.4999999999999997E-2</v>
+        <v>14597</v>
       </c>
       <c r="AE2">
-        <v>12764</v>
-      </c>
-      <c r="AF2">
-        <v>587</v>
-      </c>
-      <c r="AG2">
-        <v>14597</v>
-      </c>
-      <c r="AH2">
         <v>1459</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7">
-        <v>6746.6029669090485</v>
+      <c r="C3" s="6">
+        <v>18654.474999999999</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="3">
-        <v>0.84175</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.34110000000000001</v>
+        <v>0.36195068499999999</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="M3">
-        <v>480</v>
-      </c>
-      <c r="N3">
-        <v>180</v>
+        <v>240</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.35</v>
       </c>
       <c r="O3">
-        <v>480</v>
-      </c>
-      <c r="P3">
-        <v>240</v>
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
+        <v>2.58</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.35</v>
+        <v>2.7E-2</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
-      <c r="S3" s="4">
-        <v>2.58</v>
-      </c>
-      <c r="T3" s="3">
-        <v>2.7E-2</v>
+      <c r="S3">
+        <v>99</v>
+      </c>
+      <c r="T3">
+        <v>30</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V3">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="W3">
-        <v>30</v>
-      </c>
-      <c r="X3">
-        <v>15</v>
-      </c>
-      <c r="Y3">
-        <v>15</v>
+        <v>120</v>
+      </c>
+      <c r="X3" s="3">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="Z3">
-        <v>120</v>
-      </c>
-      <c r="AA3" s="3">
-        <v>7.4399999999999994E-2</v>
-      </c>
-      <c r="AB3" s="3">
-        <v>4.4999999999999999E-4</v>
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="AA3">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="AB3">
+        <v>10415</v>
       </c>
       <c r="AC3">
-        <v>9.1999999999999998E-2</v>
+        <v>636</v>
       </c>
       <c r="AD3">
-        <v>7.1999999999999995E-2</v>
+        <v>10736</v>
       </c>
       <c r="AE3">
-        <v>10415</v>
-      </c>
-      <c r="AF3">
-        <v>636</v>
-      </c>
-      <c r="AG3">
-        <v>10736</v>
-      </c>
-      <c r="AH3">
         <v>1303</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7">
-        <v>35598</v>
+      <c r="C4" s="6">
+        <v>21309</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
+        <v>4.9556524999999997E-2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="M4">
         <v>360</v>
       </c>
       <c r="N4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>480</v>
-      </c>
-      <c r="P4">
-        <v>360</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1.675</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
-      <c r="S4" s="4">
-        <v>1.675</v>
-      </c>
-      <c r="T4" s="3">
-        <v>4.2999999999999997E-2</v>
+      <c r="S4">
+        <v>99</v>
+      </c>
+      <c r="T4">
+        <v>60</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V4">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="W4">
-        <v>60</v>
-      </c>
-      <c r="X4">
-        <v>15</v>
-      </c>
-      <c r="Y4">
-        <v>15</v>
+        <v>120</v>
+      </c>
+      <c r="X4" s="3">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="Z4">
-        <v>120</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>3.0000000000000001E-3</v>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AA4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="AB4">
+        <v>3822</v>
       </c>
       <c r="AC4">
-        <v>8.3000000000000004E-2</v>
+        <v>402</v>
       </c>
       <c r="AD4">
-        <v>4.2000000000000003E-2</v>
+        <v>6860</v>
       </c>
       <c r="AE4">
-        <v>3822</v>
-      </c>
-      <c r="AF4">
-        <v>402</v>
-      </c>
-      <c r="AG4">
-        <v>6860</v>
-      </c>
-      <c r="AH4">
         <v>1279</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="7">
-        <v>2002</v>
+      <c r="C5" s="6">
+        <v>22551</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="3">
-        <v>0.76824999999999999</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.36599999999999999</v>
+        <v>0.24473415800000001</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="M5">
-        <v>480</v>
-      </c>
-      <c r="N5">
-        <v>180</v>
+        <v>240</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.85</v>
       </c>
       <c r="O5">
-        <v>480</v>
-      </c>
-      <c r="P5">
-        <v>240</v>
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <v>2.17</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.85</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
-      <c r="S5" s="4">
-        <v>2.17</v>
-      </c>
-      <c r="T5" s="3">
-        <v>3.2000000000000001E-2</v>
+      <c r="S5">
+        <v>99</v>
+      </c>
+      <c r="T5">
+        <v>60</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V5">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="W5">
-        <v>60</v>
-      </c>
-      <c r="X5">
-        <v>15</v>
-      </c>
-      <c r="Y5">
-        <v>15</v>
+        <v>120</v>
+      </c>
+      <c r="X5" s="3">
+        <v>7.0199999999999999E-2</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="Z5">
-        <v>120</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>7.0199999999999999E-2</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>7.5000000000000002E-4</v>
+        <v>0.1</v>
+      </c>
+      <c r="AA5">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="AB5">
+        <v>5900</v>
       </c>
       <c r="AC5">
-        <v>0.1</v>
+        <v>1259</v>
       </c>
       <c r="AD5">
-        <v>6.7000000000000004E-2</v>
+        <v>10735</v>
       </c>
       <c r="AE5">
-        <v>5900</v>
-      </c>
-      <c r="AF5">
-        <v>1259</v>
-      </c>
-      <c r="AG5">
-        <v>10735</v>
-      </c>
-      <c r="AH5">
         <v>1698</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7">
-        <v>3194.5</v>
+      <c r="C6" s="6">
+        <v>11555</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.65900000000000003</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.3881</v>
+        <v>0.13760276900000001</v>
+      </c>
+      <c r="F6">
+        <v>0.71</v>
       </c>
       <c r="G6">
+        <v>0.38</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0.71</v>
-      </c>
       <c r="J6">
-        <v>0.38</v>
+        <v>480</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="M6">
-        <v>480</v>
-      </c>
-      <c r="N6">
-        <v>180</v>
+        <v>240</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.26</v>
       </c>
       <c r="O6">
-        <v>480</v>
-      </c>
-      <c r="P6">
-        <v>240</v>
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1.885</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.26</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
-      <c r="S6" s="4">
-        <v>1.885</v>
-      </c>
-      <c r="T6" s="3">
-        <v>2.8000000000000001E-2</v>
+      <c r="S6">
+        <v>99</v>
+      </c>
+      <c r="T6">
+        <v>60</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V6">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="W6">
-        <v>60</v>
-      </c>
-      <c r="X6">
-        <v>15</v>
-      </c>
-      <c r="Y6">
-        <v>15</v>
+        <v>120</v>
+      </c>
+      <c r="X6" s="3">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="Z6">
-        <v>120</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>7.9200000000000007E-2</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>4.4999999999999999E-4</v>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AA6">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="AB6">
+        <v>12301</v>
       </c>
       <c r="AC6">
-        <v>8.3000000000000004E-2</v>
+        <v>1298</v>
       </c>
       <c r="AD6">
-        <v>4.2000000000000003E-2</v>
+        <v>13621</v>
       </c>
       <c r="AE6">
-        <v>12301</v>
-      </c>
-      <c r="AF6">
-        <v>1298</v>
-      </c>
-      <c r="AG6">
-        <v>13621</v>
-      </c>
-      <c r="AH6">
         <v>1933</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="AH10" s="2"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AE10" s="2"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="S12" s="6"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="P12" s="5"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="S13" s="6"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="P13" s="5"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="S15" s="1"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="S16" s="1"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="P16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
